--- a/vividus-tests/src/main/resources/data/excel.xlsx
+++ b/vividus-tests/src/main/resources/data/excel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valery_yatsynovich/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\epam-projects\open-source\vividus\vividus-tests\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E84EB-92F0-4E43-857D-7E890C0FBCD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83607C2-F575-4A34-99C1-F42B883D7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{AC3B2335-A18D-5E44-A6C2-E3C268DADC3E}"/>
+    <workbookView xWindow="10500" yWindow="2100" windowWidth="28800" windowHeight="11505" activeTab="1" xr2:uid="{AC3B2335-A18D-5E44-A6C2-E3C268DADC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DifferentTypes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,11 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>line 1
 line 2
 line 3</t>
+  </si>
+  <si>
+    <t>StringValue</t>
+  </si>
+  <si>
+    <t>NumericValue</t>
+  </si>
+  <si>
+    <t>BooleanValue</t>
+  </si>
+  <si>
+    <t>FormulaValue</t>
+  </si>
+  <si>
+    <t>FormulaErrorValue</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -394,13 +415,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B42BB46-8914-074F-9991-D02565945E61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89308D-83D0-4DA6-AC29-D5DA61565F12}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>B2*B2</f>
+        <v>289</v>
+      </c>
+      <c r="E2" t="e">
+        <f>A2*B2</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/vividus-tests/src/main/resources/data/excel.xlsx
+++ b/vividus-tests/src/main/resources/data/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\epam-projects\open-source\vividus\vividus-tests\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83607C2-F575-4A34-99C1-F42B883D7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DDA64D-D21B-4F62-BD01-D56A16E8F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2100" windowWidth="28800" windowHeight="11505" activeTab="1" xr2:uid="{AC3B2335-A18D-5E44-A6C2-E3C268DADC3E}"/>
+    <workbookView xWindow="11340" yWindow="4512" windowWidth="25788" windowHeight="10356" activeTab="1" xr2:uid="{AC3B2335-A18D-5E44-A6C2-E3C268DADC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>line 1
 line 2
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Timezone</t>
   </si>
 </sst>
 </file>
@@ -117,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -263,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,11 +421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B42BB46-8914-074F-9991-D02565945E61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,21 +439,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89308D-83D0-4DA6-AC29-D5DA61565F12}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="4" width="13.75" customWidth="1"/>
+    <col min="3" max="4" width="13.69921875" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -462,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -479,6 +487,36 @@
       <c r="E2" t="e">
         <f>A2*B2</f>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>B3*B3</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>B4*B4</f>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
